--- a/실무_엑셀_예제_파일/Chapter07/07-019.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-019.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3959C474-EF76-4188-9689-C877F8EFB592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EB393E-0C96-431B-9006-97F98F9F97E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="156" windowWidth="18648" windowHeight="14088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JS스퀘어" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>승인일</t>
   </si>
@@ -106,6 +96,10 @@
   </si>
   <si>
     <t>카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -224,13 +218,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -243,9 +237,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,22 +561,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CA1531-F12A-4389-BEFC-812127FCBF12}">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="32" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="13.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="13.36328125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
@@ -613,7 +606,7 @@
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f ca="1">TODAY()</f>
-        <v>44442</v>
+        <v>45771</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -621,7 +614,10 @@
       <c r="D5" s="3">
         <v>12800</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="str">
+        <f t="array" ref="E5">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C5))), "포함", "")</f>
+        <v>포함</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
@@ -629,7 +625,7 @@
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f ca="1">B5+2</f>
-        <v>44444</v>
+        <v>45773</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -637,13 +633,18 @@
       <c r="D6" s="3">
         <v>16300</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="9" t="str">
+        <f t="array" ref="E6">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C6))), "포함", "")</f>
+        <v/>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" ref="B7:B20" ca="1" si="0">B6+2</f>
-        <v>44446</v>
+        <v>45775</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -651,12 +652,15 @@
       <c r="D7" s="3">
         <v>31200</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="str">
+        <f t="array" ref="E7">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C7))), "포함", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44448</v>
+        <v>45777</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -664,12 +668,15 @@
       <c r="D8" s="3">
         <v>24600</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="str">
+        <f t="array" ref="E8">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C8))), "포함", "")</f>
+        <v>포함</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44450</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -677,12 +684,15 @@
       <c r="D9" s="3">
         <v>8900</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9" t="str">
+        <f t="array" ref="E9">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C9))), "포함", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44452</v>
+        <v>45781</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -690,12 +700,15 @@
       <c r="D10" s="3">
         <v>6500</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="str">
+        <f t="array" ref="E10">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C10))), "포함", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44454</v>
+        <v>45783</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -703,12 +716,15 @@
       <c r="D11" s="3">
         <v>33000</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="str">
+        <f t="array" ref="E11">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C11))), "포함", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44456</v>
+        <v>45785</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -716,12 +732,15 @@
       <c r="D12" s="3">
         <v>284400</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9" t="str">
+        <f t="array" ref="E12">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C12))), "포함", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44458</v>
+        <v>45787</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -729,12 +748,15 @@
       <c r="D13" s="3">
         <v>42300</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="str">
+        <f t="array" ref="E13">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C13))), "포함", "")</f>
+        <v>포함</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44460</v>
+        <v>45789</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -742,12 +764,15 @@
       <c r="D14" s="3">
         <v>7400</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="str">
+        <f t="array" ref="E14">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C14))), "포함", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44462</v>
+        <v>45791</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -755,12 +780,15 @@
       <c r="D15" s="3">
         <v>31300</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9" t="str">
+        <f t="array" ref="E15">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C15))), "포함", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44464</v>
+        <v>45793</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -768,12 +796,15 @@
       <c r="D16" s="3">
         <v>17400</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="str">
+        <f t="array" ref="E16">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C16))), "포함", "")</f>
+        <v>포함</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44466</v>
+        <v>45795</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -781,12 +812,15 @@
       <c r="D17" s="3">
         <v>13700</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="str">
+        <f t="array" ref="E17">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C17))), "포함", "")</f>
+        <v>포함</v>
+      </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44468</v>
+        <v>45797</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -794,12 +828,15 @@
       <c r="D18" s="3">
         <v>84400</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="str">
+        <f t="array" ref="E18">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C18))), "포함", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44470</v>
+        <v>45799</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -807,12 +844,15 @@
       <c r="D19" s="3">
         <v>37900</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="str">
+        <f t="array" ref="E19">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C19))), "포함", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44472</v>
+        <v>45801</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -820,7 +860,10 @@
       <c r="D20" s="3">
         <v>43000</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9" t="str">
+        <f t="array" ref="E20">IF(OR(ISNUMBER(SEARCH(TRANSPOSE($G$5:$G$6),C20))), "포함", "")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
